--- a/Matlab_experiments/ICPR2016/resultsICPR2016 (version 1).xlsx
+++ b/Matlab_experiments/ICPR2016/resultsICPR2016 (version 1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16080" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="188">
   <si>
     <t>idtHOG_VLAD</t>
   </si>
@@ -587,6 +587,27 @@
   </si>
   <si>
     <t>tempVGG16pool5_PCAdim0_NormNone_clusters64</t>
+  </si>
+  <si>
+    <t>Dataset and Split: HMBD51Split1 --&gt; vladNoMean acc= 0.3170   maxEncode acc= 0.4569  fisherVectors acc= 0.3359</t>
+  </si>
+  <si>
+    <t>Dataset and Split: HMBD51Split2 --&gt; vladNoMean acc= 0.2980   maxEncode acc= 0.4392  fisherVectors acc= 0.3176</t>
+  </si>
+  <si>
+    <t>Dataset and Split: HMBD51Split3 --&gt; vladNoMean acc= 0.3163   maxEncode acc= 0.4667  fisherVectors acc= 0.3281</t>
+  </si>
+  <si>
+    <t>Dataset and Split: HMBD51Split1 --&gt; vladNoMean acc= 0.4477   maxEncode acc= 0.5928  fisherVectors acc= 0.4739</t>
+  </si>
+  <si>
+    <t>Dataset and Split: HMBD51Split2 --&gt; vladNoMean acc= 0.4359   maxEncode acc= 0.5752  fisherVectors acc= 0.4752</t>
+  </si>
+  <si>
+    <t>Dataset and Split: HMBD51Split3 --&gt; vladNoMean acc= 0.4556   maxEncode acc= 0.5850  fisherVectors acc= 0.4941</t>
+  </si>
+  <si>
+    <t>spVGG19+ tempVGG16</t>
   </si>
 </sst>
 </file>
@@ -696,7 +717,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="427">
+  <cellStyleXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1124,8 +1145,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1162,8 +1205,9 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="427">
+  <cellStyles count="449">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1377,6 +1421,17 @@
     <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1590,6 +1645,17 @@
     <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1921,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W122"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4910,10 +4976,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H61"/>
+  <dimension ref="A4:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5337,15 +5403,364 @@
       <c r="A59" t="s">
         <v>140</v>
       </c>
+      <c r="B59" s="1">
+        <v>0.96630000000000005</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>178</v>
       </c>
+      <c r="B60" s="1">
+        <v>0.93600000000000005</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>141</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.94930000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" t="s">
+        <v>137</v>
+      </c>
+      <c r="G80" t="s">
+        <v>138</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="18">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.45689999999999997</v>
+      </c>
+      <c r="D81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="G81" t="s">
+        <v>140</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.4667</v>
+      </c>
+      <c r="J81" t="s">
+        <v>140</v>
+      </c>
+      <c r="K81" s="22">
+        <f>AVERAGE(B81,E81,H81)</f>
+        <v>0.45426666666666665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.317</v>
+      </c>
+      <c r="D82" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G82" t="s">
+        <v>178</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.31630000000000003</v>
+      </c>
+      <c r="J82" t="s">
+        <v>178</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" ref="K82:K83" si="0">AVERAGE(B82,E82,H82)</f>
+        <v>0.31043333333333334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.33589999999999998</v>
+      </c>
+      <c r="D83" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.31759999999999999</v>
+      </c>
+      <c r="G83" t="s">
+        <v>141</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.3281</v>
+      </c>
+      <c r="J83" t="s">
+        <v>141</v>
+      </c>
+      <c r="K83" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32719999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" t="s">
+        <v>137</v>
+      </c>
+      <c r="G87" t="s">
+        <v>138</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="18">
+      <c r="A88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="G88" t="s">
+        <v>140</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="J88" t="s">
+        <v>140</v>
+      </c>
+      <c r="K88" s="22">
+        <f>AVERAGE(B88,E88,H88)</f>
+        <v>0.58433333333333337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="D89" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="G89" t="s">
+        <v>178</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.4556</v>
+      </c>
+      <c r="J89" t="s">
+        <v>178</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" ref="K89:K90" si="1">AVERAGE(B89,E89,H89)</f>
+        <v>0.44639999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="D90" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.47520000000000001</v>
+      </c>
+      <c r="G90" t="s">
+        <v>141</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.49409999999999998</v>
+      </c>
+      <c r="J90" t="s">
+        <v>141</v>
+      </c>
+      <c r="K90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4810666666666667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
+      </c>
+      <c r="G94" t="s">
+        <v>138</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="18">
+      <c r="A95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="D95" t="s">
+        <v>140</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.63660000000000005</v>
+      </c>
+      <c r="G95" t="s">
+        <v>140</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+      <c r="K95" s="22">
+        <f>AVERAGE(B95,E95,H95)</f>
+        <v>0.62809999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="D96" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.4889</v>
+      </c>
+      <c r="G96" t="s">
+        <v>178</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="J96" t="s">
+        <v>178</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" ref="K96:K97" si="2">AVERAGE(B96,E96,H96)</f>
+        <v>0.49693333333333339</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="D97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="G97" t="s">
+        <v>141</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="J97" t="s">
+        <v>141</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51416666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Matlab_experiments/ICPR2016/resultsICPR2016 (version 1).xlsx
+++ b/Matlab_experiments/ICPR2016/resultsICPR2016 (version 1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="202">
   <si>
     <t>idtHOG_VLAD</t>
   </si>
@@ -608,6 +608,48 @@
   </si>
   <si>
     <t>spVGG19+ tempVGG16</t>
+  </si>
+  <si>
+    <t>clusters</t>
+  </si>
+  <si>
+    <t>spVGG19pool5_PCAdim0_NormNone_clusters64</t>
+  </si>
+  <si>
+    <t>spVGG19pool5_PCAdim0_NormNone_clusters128</t>
+  </si>
+  <si>
+    <t>100 videos</t>
+  </si>
+  <si>
+    <t>mean(time_DescExtrac)</t>
+  </si>
+  <si>
+    <t>ans =</t>
+  </si>
+  <si>
+    <t>mean(time_fisherVectors)</t>
+  </si>
+  <si>
+    <t>mean(time_maxEncode)</t>
+  </si>
+  <si>
+    <t>mean(time_vladNoMean)</t>
+  </si>
+  <si>
+    <t>500 videos</t>
+  </si>
+  <si>
+    <t>sum(time_DescExtrac)</t>
+  </si>
+  <si>
+    <t>sum(time_fisherVectors)</t>
+  </si>
+  <si>
+    <t>sum(time_maxEncode)</t>
+  </si>
+  <si>
+    <t>sum(time_vladNoMean)</t>
   </si>
 </sst>
 </file>
@@ -717,8 +759,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="449">
+  <cellStyleXfs count="473">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1207,7 +1273,7 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="449">
+  <cellStyles count="473">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1432,6 +1498,18 @@
     <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1656,6 +1734,18 @@
     <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4976,10 +5066,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:K97"/>
+  <dimension ref="A4:W123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView tabSelected="1" topLeftCell="K102" workbookViewId="0">
+      <selection activeCell="W119" sqref="W119:W123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5365,12 +5455,12 @@
         <v>0.93059999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -5381,7 +5471,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>0.70709999999999995</v>
       </c>
@@ -5394,178 +5484,186 @@
         <v>0.95179999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58">
+        <v>128</v>
+      </c>
+      <c r="G58" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>140</v>
       </c>
       <c r="B59" s="1">
-        <v>0.96630000000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="D59" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="G59" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.84319999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>178</v>
       </c>
       <c r="B60" s="1">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="D60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="G60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.73029999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>141</v>
       </c>
       <c r="B61" s="1">
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="D61" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.72689999999999999</v>
+      </c>
+      <c r="G61" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.72689999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.96630000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="1">
         <v>0.94930000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="A73" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" t="s">
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" t="s">
-        <v>137</v>
-      </c>
-      <c r="G80" t="s">
-        <v>138</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="18">
-      <c r="A81" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0.45689999999999997</v>
-      </c>
-      <c r="D81" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" s="1">
-        <v>0.43919999999999998</v>
-      </c>
-      <c r="G81" t="s">
-        <v>140</v>
-      </c>
-      <c r="H81" s="1">
-        <v>0.4667</v>
-      </c>
-      <c r="J81" t="s">
-        <v>140</v>
-      </c>
-      <c r="K81" s="22">
-        <f>AVERAGE(B81,E81,H81)</f>
-        <v>0.45426666666666665</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>178</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0.317</v>
-      </c>
-      <c r="D82" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="G82" t="s">
-        <v>178</v>
-      </c>
-      <c r="H82" s="1">
-        <v>0.31630000000000003</v>
-      </c>
-      <c r="J82" t="s">
-        <v>178</v>
-      </c>
-      <c r="K82" s="1">
-        <f t="shared" ref="K82:K83" si="0">AVERAGE(B82,E82,H82)</f>
-        <v>0.31043333333333334</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0.33589999999999998</v>
-      </c>
-      <c r="D83" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0.31759999999999999</v>
-      </c>
-      <c r="G83" t="s">
-        <v>141</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0.3281</v>
-      </c>
-      <c r="J83" t="s">
-        <v>141</v>
-      </c>
-      <c r="K83" s="1">
-        <f t="shared" si="0"/>
-        <v>0.32719999999999999</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5587,26 +5685,26 @@
         <v>140</v>
       </c>
       <c r="B88" s="1">
-        <v>0.59279999999999999</v>
+        <v>0.45689999999999997</v>
       </c>
       <c r="D88" t="s">
         <v>140</v>
       </c>
       <c r="E88" s="1">
-        <v>0.57520000000000004</v>
+        <v>0.43919999999999998</v>
       </c>
       <c r="G88" t="s">
         <v>140</v>
       </c>
       <c r="H88" s="1">
-        <v>0.58499999999999996</v>
+        <v>0.4667</v>
       </c>
       <c r="J88" t="s">
         <v>140</v>
       </c>
       <c r="K88" s="22">
         <f>AVERAGE(B88,E88,H88)</f>
-        <v>0.58433333333333337</v>
+        <v>0.45426666666666665</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5614,26 +5712,26 @@
         <v>178</v>
       </c>
       <c r="B89" s="1">
-        <v>0.44769999999999999</v>
+        <v>0.317</v>
       </c>
       <c r="D89" t="s">
         <v>178</v>
       </c>
       <c r="E89" s="1">
-        <v>0.43590000000000001</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="G89" t="s">
         <v>178</v>
       </c>
       <c r="H89" s="1">
-        <v>0.4556</v>
+        <v>0.31630000000000003</v>
       </c>
       <c r="J89" t="s">
         <v>178</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" ref="K89:K90" si="1">AVERAGE(B89,E89,H89)</f>
-        <v>0.44639999999999996</v>
+        <f t="shared" ref="K89:K90" si="0">AVERAGE(B89,E89,H89)</f>
+        <v>0.31043333333333334</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5641,31 +5739,31 @@
         <v>141</v>
       </c>
       <c r="B90" s="1">
-        <v>0.47389999999999999</v>
+        <v>0.33589999999999998</v>
       </c>
       <c r="D90" t="s">
         <v>141</v>
       </c>
       <c r="E90" s="1">
-        <v>0.47520000000000001</v>
+        <v>0.31759999999999999</v>
       </c>
       <c r="G90" t="s">
         <v>141</v>
       </c>
       <c r="H90" s="1">
-        <v>0.49409999999999998</v>
+        <v>0.3281</v>
       </c>
       <c r="J90" t="s">
         <v>141</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="1"/>
-        <v>0.4810666666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.32719999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5687,26 +5785,26 @@
         <v>140</v>
       </c>
       <c r="B95" s="1">
-        <v>0.63139999999999996</v>
+        <v>0.59279999999999999</v>
       </c>
       <c r="D95" t="s">
         <v>140</v>
       </c>
       <c r="E95" s="1">
-        <v>0.63660000000000005</v>
+        <v>0.57520000000000004</v>
       </c>
       <c r="G95" t="s">
         <v>140</v>
       </c>
       <c r="H95" s="1">
-        <v>0.61629999999999996</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="J95" t="s">
         <v>140</v>
       </c>
       <c r="K95" s="22">
         <f>AVERAGE(B95,E95,H95)</f>
-        <v>0.62809999999999999</v>
+        <v>0.58433333333333337</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5714,26 +5812,26 @@
         <v>178</v>
       </c>
       <c r="B96" s="1">
-        <v>0.49669999999999997</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="D96" t="s">
         <v>178</v>
       </c>
       <c r="E96" s="1">
-        <v>0.4889</v>
+        <v>0.43590000000000001</v>
       </c>
       <c r="G96" t="s">
         <v>178</v>
       </c>
       <c r="H96" s="1">
-        <v>0.50519999999999998</v>
+        <v>0.4556</v>
       </c>
       <c r="J96" t="s">
         <v>178</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" ref="K96:K97" si="2">AVERAGE(B96,E96,H96)</f>
-        <v>0.49693333333333339</v>
+        <f t="shared" ref="K96:K97" si="1">AVERAGE(B96,E96,H96)</f>
+        <v>0.44639999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5741,26 +5839,256 @@
         <v>141</v>
       </c>
       <c r="B97" s="1">
-        <v>0.51829999999999998</v>
+        <v>0.47389999999999999</v>
       </c>
       <c r="D97" t="s">
         <v>141</v>
       </c>
       <c r="E97" s="1">
-        <v>0.50460000000000005</v>
+        <v>0.47520000000000001</v>
       </c>
       <c r="G97" t="s">
         <v>141</v>
       </c>
       <c r="H97" s="1">
-        <v>0.51959999999999995</v>
+        <v>0.49409999999999998</v>
       </c>
       <c r="J97" t="s">
         <v>141</v>
       </c>
       <c r="K97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4810666666666667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" t="s">
+        <v>137</v>
+      </c>
+      <c r="G101" t="s">
+        <v>138</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="18">
+      <c r="A102" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="D102" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.63660000000000005</v>
+      </c>
+      <c r="G102" t="s">
+        <v>140</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+      <c r="K102" s="22">
+        <f>AVERAGE(B102,E102,H102)</f>
+        <v>0.62809999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="D103" t="s">
+        <v>178</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.4889</v>
+      </c>
+      <c r="G103" t="s">
+        <v>178</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="J103" t="s">
+        <v>178</v>
+      </c>
+      <c r="K103" s="1">
+        <f t="shared" ref="K103:K104" si="2">AVERAGE(B103,E103,H103)</f>
+        <v>0.49693333333333339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="D104" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="G104" t="s">
+        <v>141</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+      <c r="K104" s="1">
         <f t="shared" si="2"/>
         <v>0.51416666666666666</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="B111" t="s">
+        <v>192</v>
+      </c>
+      <c r="E111" t="s">
+        <v>194</v>
+      </c>
+      <c r="H111" t="s">
+        <v>195</v>
+      </c>
+      <c r="K111" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
+      <c r="B113" t="s">
+        <v>193</v>
+      </c>
+      <c r="E113" t="s">
+        <v>193</v>
+      </c>
+      <c r="H113" t="s">
+        <v>193</v>
+      </c>
+      <c r="K113" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
+      <c r="B115">
+        <v>1.1913</v>
+      </c>
+      <c r="E115">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="H115">
+        <v>0.1799</v>
+      </c>
+      <c r="K115">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
+      <c r="A118" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
+      <c r="B119" t="s">
+        <v>192</v>
+      </c>
+      <c r="E119" t="s">
+        <v>194</v>
+      </c>
+      <c r="H119" t="s">
+        <v>195</v>
+      </c>
+      <c r="K119" t="s">
+        <v>196</v>
+      </c>
+      <c r="N119" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>199</v>
+      </c>
+      <c r="T119" t="s">
+        <v>200</v>
+      </c>
+      <c r="W119" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
+      <c r="B121" t="s">
+        <v>193</v>
+      </c>
+      <c r="E121" t="s">
+        <v>193</v>
+      </c>
+      <c r="H121" t="s">
+        <v>193</v>
+      </c>
+      <c r="K121" t="s">
+        <v>193</v>
+      </c>
+      <c r="N121" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>193</v>
+      </c>
+      <c r="T121" t="s">
+        <v>193</v>
+      </c>
+      <c r="W121" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
+      <c r="B123">
+        <v>1.1677999999999999</v>
+      </c>
+      <c r="E123">
+        <v>1.2093</v>
+      </c>
+      <c r="H123">
+        <v>0.1782</v>
+      </c>
+      <c r="K123">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="N123">
+        <v>583.88829999999996</v>
+      </c>
+      <c r="Q123">
+        <v>604.63229999999999</v>
+      </c>
+      <c r="T123">
+        <v>89.1053</v>
+      </c>
+      <c r="W123">
+        <v>94.182100000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Matlab_experiments/ICPR2016/resultsICPR2016 (version 1).xlsx
+++ b/Matlab_experiments/ICPR2016/resultsICPR2016 (version 1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="212">
   <si>
     <t>idtHOG_VLAD</t>
   </si>
@@ -650,6 +650,36 @@
   </si>
   <si>
     <t>sum(time_vladNoMean)</t>
+  </si>
+  <si>
+    <t>sum(nFrames)/49</t>
+  </si>
+  <si>
+    <t>frames/sec</t>
+  </si>
+  <si>
+    <t>mean(nFrames/49)</t>
+  </si>
+  <si>
+    <t>min(nFrames/49)</t>
+  </si>
+  <si>
+    <t>max(nFrames/49)</t>
+  </si>
+  <si>
+    <t>spVGG19pool5_PCAdim0_NormNone_clusters512</t>
+  </si>
+  <si>
+    <t>tempVGG16pool5_PCAdim0_NormNone_clusters128</t>
+  </si>
+  <si>
+    <t>tempVGG16pool5_PCAdim0_NormNone_clusters512</t>
+  </si>
+  <si>
+    <t>spVGG19pool5_PCAdim256_NormNone_clusters256</t>
+  </si>
+  <si>
+    <t>tempVGG16pool5_PCAdim256_NormNone_clusters256</t>
   </si>
 </sst>
 </file>
@@ -759,8 +789,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="473">
+  <cellStyleXfs count="501">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1273,7 +1331,7 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="473">
+  <cellStyles count="501">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1510,6 +1568,20 @@
     <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1746,6 +1818,20 @@
     <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5066,10 +5152,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:W123"/>
+  <dimension ref="A4:W152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K102" workbookViewId="0">
-      <selection activeCell="W119" sqref="W119:W123"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5498,7 +5584,7 @@
         <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5518,7 +5604,7 @@
         <v>188</v>
       </c>
       <c r="H58">
-        <v>128</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5538,7 +5624,7 @@
         <v>140</v>
       </c>
       <c r="H59" s="1">
-        <v>0.84319999999999995</v>
+        <v>0.84940000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5558,7 +5644,7 @@
         <v>178</v>
       </c>
       <c r="H60" s="1">
-        <v>0.73029999999999995</v>
+        <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5578,7 +5664,7 @@
         <v>141</v>
       </c>
       <c r="H61" s="1">
-        <v>0.72689999999999999</v>
+        <v>0.70279999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5588,507 +5674,766 @@
       <c r="C64" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="D64" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>188</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65">
+        <v>128</v>
+      </c>
+      <c r="G65" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>140</v>
       </c>
       <c r="B66" s="1">
         <v>0.96630000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="D66" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.96589999999999998</v>
+      </c>
+      <c r="G66" t="s">
+        <v>140</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>178</v>
       </c>
       <c r="B67" s="1">
         <v>0.93600000000000005</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G67" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.89980000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>141</v>
       </c>
       <c r="B68" s="1">
         <v>0.94930000000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="D68" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.9456</v>
+      </c>
+      <c r="G68" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.94020000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.81759999999999999</v>
+      </c>
+      <c r="F73" t="s">
+        <v>140</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.96109999999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="F74" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.92290000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="F75" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
         <v>136</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D92" t="s">
         <v>137</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G92" t="s">
         <v>138</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18">
-      <c r="A88" t="s">
+    <row r="93" spans="1:11" ht="18">
+      <c r="A93" t="s">
         <v>140</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B93" s="1">
         <v>0.45689999999999997</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D93" t="s">
         <v>140</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E93" s="1">
         <v>0.43919999999999998</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G93" t="s">
         <v>140</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H93" s="1">
         <v>0.4667</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J93" t="s">
         <v>140</v>
       </c>
-      <c r="K88" s="22">
-        <f>AVERAGE(B88,E88,H88)</f>
+      <c r="K93" s="22">
+        <f>AVERAGE(B93,E93,H93)</f>
         <v>0.45426666666666665</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" t="s">
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
         <v>178</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B94" s="1">
         <v>0.317</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D94" t="s">
         <v>178</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E94" s="1">
         <v>0.29799999999999999</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G94" t="s">
         <v>178</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H94" s="1">
         <v>0.31630000000000003</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J94" t="s">
         <v>178</v>
       </c>
-      <c r="K89" s="1">
-        <f t="shared" ref="K89:K90" si="0">AVERAGE(B89,E89,H89)</f>
+      <c r="K94" s="1">
+        <f t="shared" ref="K94:K95" si="0">AVERAGE(B94,E94,H94)</f>
         <v>0.31043333333333334</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" t="s">
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B95" s="1">
         <v>0.33589999999999998</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D95" t="s">
         <v>141</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E95" s="1">
         <v>0.31759999999999999</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G95" t="s">
         <v>141</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H95" s="1">
         <v>0.3281</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J95" t="s">
         <v>141</v>
       </c>
-      <c r="K90" s="1">
+      <c r="K95" s="1">
         <f t="shared" si="0"/>
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" t="s">
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
         <v>136</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D99" t="s">
         <v>137</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G99" t="s">
         <v>138</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J99" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18">
-      <c r="A95" t="s">
+    <row r="100" spans="1:11" ht="18">
+      <c r="A100" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B100" s="1">
         <v>0.59279999999999999</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D100" t="s">
         <v>140</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E100" s="1">
         <v>0.57520000000000004</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G100" t="s">
         <v>140</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H100" s="1">
         <v>0.58499999999999996</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J100" t="s">
         <v>140</v>
       </c>
-      <c r="K95" s="22">
-        <f>AVERAGE(B95,E95,H95)</f>
+      <c r="K100" s="22">
+        <f>AVERAGE(B100,E100,H100)</f>
         <v>0.58433333333333337</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" t="s">
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
         <v>178</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B101" s="1">
         <v>0.44769999999999999</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D101" t="s">
         <v>178</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E101" s="1">
         <v>0.43590000000000001</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G101" t="s">
         <v>178</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H101" s="1">
         <v>0.4556</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J101" t="s">
         <v>178</v>
       </c>
-      <c r="K96" s="1">
-        <f t="shared" ref="K96:K97" si="1">AVERAGE(B96,E96,H96)</f>
+      <c r="K101" s="1">
+        <f t="shared" ref="K101:K102" si="1">AVERAGE(B101,E101,H101)</f>
         <v>0.44639999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" t="s">
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
         <v>141</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B102" s="1">
         <v>0.47389999999999999</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D102" t="s">
         <v>141</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E102" s="1">
         <v>0.47520000000000001</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G102" t="s">
         <v>141</v>
       </c>
-      <c r="H97" s="1">
+      <c r="H102" s="1">
         <v>0.49409999999999998</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J102" t="s">
         <v>141</v>
       </c>
-      <c r="K97" s="1">
+      <c r="K102" s="1">
         <f t="shared" si="1"/>
         <v>0.4810666666666667</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" t="s">
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" t="s">
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
         <v>136</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D106" t="s">
         <v>137</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G106" t="s">
         <v>138</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18">
-      <c r="A102" t="s">
+    <row r="107" spans="1:11" ht="18">
+      <c r="A107" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B107" s="1">
         <v>0.63139999999999996</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D107" t="s">
         <v>140</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E107" s="1">
         <v>0.63660000000000005</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G107" t="s">
         <v>140</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H107" s="1">
         <v>0.61629999999999996</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J107" t="s">
         <v>140</v>
       </c>
-      <c r="K102" s="22">
-        <f>AVERAGE(B102,E102,H102)</f>
+      <c r="K107" s="22">
+        <f>AVERAGE(B107,E107,H107)</f>
         <v>0.62809999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" t="s">
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B108" s="1">
         <v>0.49669999999999997</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D108" t="s">
         <v>178</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E108" s="1">
         <v>0.4889</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G108" t="s">
         <v>178</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H108" s="1">
         <v>0.50519999999999998</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J108" t="s">
         <v>178</v>
       </c>
-      <c r="K103" s="1">
-        <f t="shared" ref="K103:K104" si="2">AVERAGE(B103,E103,H103)</f>
+      <c r="K108" s="1">
+        <f t="shared" ref="K108:K109" si="2">AVERAGE(B108,E108,H108)</f>
         <v>0.49693333333333339</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" t="s">
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B109" s="1">
         <v>0.51829999999999998</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D109" t="s">
         <v>141</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E109" s="1">
         <v>0.50460000000000005</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G109" t="s">
         <v>141</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H109" s="1">
         <v>0.51959999999999995</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J109" t="s">
         <v>141</v>
       </c>
-      <c r="K104" s="1">
+      <c r="K109" s="1">
         <f t="shared" si="2"/>
         <v>0.51416666666666666</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" t="s">
+    <row r="115" spans="1:23">
+      <c r="A115" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="B111" t="s">
+    <row r="116" spans="1:23">
+      <c r="B116" t="s">
         <v>192</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E116" t="s">
         <v>194</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H116" t="s">
         <v>195</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K116" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
-      <c r="B113" t="s">
+    <row r="118" spans="1:23">
+      <c r="B118" t="s">
         <v>193</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E118" t="s">
         <v>193</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H118" t="s">
         <v>193</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K118" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
-      <c r="B115">
+    <row r="120" spans="1:23">
+      <c r="B120">
         <v>1.1913</v>
       </c>
-      <c r="E115">
+      <c r="E120">
         <v>1.2150000000000001</v>
       </c>
-      <c r="H115">
+      <c r="H120">
         <v>0.1799</v>
       </c>
-      <c r="K115">
+      <c r="K120">
         <v>0.187</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
-      <c r="A118" t="s">
+    <row r="123" spans="1:23">
+      <c r="A123" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
-      <c r="B119" t="s">
+    <row r="124" spans="1:23">
+      <c r="B124" t="s">
         <v>192</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E124" t="s">
         <v>194</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H124" t="s">
         <v>195</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K124" t="s">
         <v>196</v>
       </c>
-      <c r="N119" t="s">
+      <c r="N124" t="s">
         <v>198</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="Q124" t="s">
         <v>199</v>
       </c>
-      <c r="T119" t="s">
+      <c r="T124" t="s">
         <v>200</v>
       </c>
-      <c r="W119" t="s">
+      <c r="W124" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
-      <c r="B121" t="s">
+    <row r="126" spans="1:23">
+      <c r="B126" t="s">
         <v>193</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E126" t="s">
         <v>193</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H126" t="s">
         <v>193</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K126" t="s">
         <v>193</v>
       </c>
-      <c r="N121" t="s">
+      <c r="N126" t="s">
         <v>193</v>
       </c>
-      <c r="Q121" t="s">
+      <c r="Q126" t="s">
         <v>193</v>
       </c>
-      <c r="T121" t="s">
+      <c r="T126" t="s">
         <v>193</v>
       </c>
-      <c r="W121" t="s">
+      <c r="W126" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
-      <c r="B123">
+    <row r="128" spans="1:23">
+      <c r="B128">
         <v>1.1677999999999999</v>
       </c>
-      <c r="E123">
+      <c r="E128">
         <v>1.2093</v>
       </c>
-      <c r="H123">
+      <c r="H128">
         <v>0.1782</v>
       </c>
-      <c r="K123">
+      <c r="K128">
         <v>0.18840000000000001</v>
       </c>
-      <c r="N123">
+      <c r="N128">
         <v>583.88829999999996</v>
       </c>
-      <c r="Q123">
+      <c r="Q128">
         <v>604.63229999999999</v>
       </c>
-      <c r="T123">
+      <c r="T128">
         <v>89.1053</v>
       </c>
-      <c r="W123">
+      <c r="W128">
         <v>94.182100000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="B133" t="s">
+        <v>192</v>
+      </c>
+      <c r="E133" t="s">
+        <v>194</v>
+      </c>
+      <c r="H133" t="s">
+        <v>195</v>
+      </c>
+      <c r="K133" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="B135" t="s">
+        <v>193</v>
+      </c>
+      <c r="E135" t="s">
+        <v>193</v>
+      </c>
+      <c r="H135" t="s">
+        <v>193</v>
+      </c>
+      <c r="K135" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="B137">
+        <v>1.2039</v>
+      </c>
+      <c r="E137">
+        <v>1.238</v>
+      </c>
+      <c r="H137">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="K137">
+        <v>0.19109999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="B140" t="s">
+        <v>202</v>
+      </c>
+      <c r="D140" t="s">
+        <v>204</v>
+      </c>
+      <c r="F140" t="s">
+        <v>205</v>
+      </c>
+      <c r="H140" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="B142" t="s">
+        <v>193</v>
+      </c>
+      <c r="D142" t="s">
+        <v>193</v>
+      </c>
+      <c r="F142" t="s">
+        <v>193</v>
+      </c>
+      <c r="H142" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="B144">
+        <v>101522</v>
+      </c>
+      <c r="D144">
+        <v>203.04400000000001</v>
+      </c>
+      <c r="F144">
+        <v>47</v>
+      </c>
+      <c r="H144">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="B146" t="s">
+        <v>198</v>
+      </c>
+      <c r="E146" t="s">
+        <v>199</v>
+      </c>
+      <c r="H146" t="s">
+        <v>200</v>
+      </c>
+      <c r="K146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="B148" t="s">
+        <v>193</v>
+      </c>
+      <c r="E148" t="s">
+        <v>193</v>
+      </c>
+      <c r="H148" t="s">
+        <v>193</v>
+      </c>
+      <c r="K148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="B150">
+        <v>601.96339999999998</v>
+      </c>
+      <c r="E150">
+        <v>618.98009999999999</v>
+      </c>
+      <c r="H150">
+        <v>90.644400000000005</v>
+      </c>
+      <c r="K150">
+        <v>95.560599999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>203</v>
+      </c>
+      <c r="B152">
+        <f>$B$144/B150</f>
+        <v>168.65144957318003</v>
+      </c>
+      <c r="E152">
+        <f>$B$144/E150</f>
+        <v>164.0149659092433</v>
+      </c>
+      <c r="H152">
+        <f>$B$144/H150</f>
+        <v>1120.0030007369455</v>
+      </c>
+      <c r="K152">
+        <f>$B$144/K150</f>
+        <v>1062.3834509201492</v>
       </c>
     </row>
   </sheetData>
